--- a/smoc-admin-ui/src/main/resources/static/files/投诉模板.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/投诉模板.xlsx
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -121,44 +121,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,61 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,21 +236,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,31 +287,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,49 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,97 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +481,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,30 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -550,13 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,157 +554,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -741,17 +741,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,12 +1078,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -1096,64 +1102,67 @@
     <col min="15" max="15" width="12.5" style="5" customWidth="1"/>
     <col min="16" max="16" width="9" style="5"/>
     <col min="17" max="17" width="13.375" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="5"/>
+    <col min="18" max="20" width="9" style="5"/>
+    <col min="21" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20" customHeight="1" spans="1:18">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" ht="20" customHeight="1" spans="1:20">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/smoc-admin-ui/src/main/resources/static/files/投诉模板.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/投诉模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="投诉明细" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,36 @@
   </si>
   <si>
     <t>处理说明</t>
+  </si>
+  <si>
+    <t>8098052</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>2022-06-21 09:05:35</t>
+  </si>
+  <si>
+    <t>微信公众号</t>
+  </si>
+  <si>
+    <t>1069123456789</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>【360借】额度提醒：您的借款额度今日有机会申请到189900元，审批为准，理性消费。点表单 ro7.cn/vt?aKhhVx 退回T</t>
+  </si>
+  <si>
+    <t>涉嫌欺诈</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>联通</t>
   </si>
   <si>
     <t>短信类型</t>
@@ -91,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -116,21 +146,58 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,61 +210,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,22 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -235,16 +288,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,21 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,49 +325,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,31 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,85 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,11 +515,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,17 +567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,24 +581,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,157 +599,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -739,25 +771,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1078,91 +1122,140 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="19.95" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="4"/>
-    <col min="4" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="13.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="17.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.25" style="5" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9" style="5"/>
-    <col min="17" max="17" width="13.375" style="5" customWidth="1"/>
-    <col min="18" max="20" width="9" style="5"/>
-    <col min="21" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="7.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="4" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="5" customWidth="1"/>
+    <col min="16" max="18" width="5.625" style="5" customWidth="1"/>
+    <col min="19" max="20" width="8.625" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="20" customHeight="1" spans="1:20">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="3" customFormat="1" ht="33" customHeight="1" spans="1:20">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:21">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="11">
+        <v>13200000000</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="11">
+        <v>12321</v>
+      </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="U2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1183,19 +1276,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
